--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3388.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3388.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.408711355887073</v>
+        <v>2.827802181243896</v>
       </c>
       <c r="B1">
-        <v>2.494376665165252</v>
+        <v>6.172130107879639</v>
       </c>
       <c r="C1">
-        <v>2.937646344123249</v>
+        <v>2.257118463516235</v>
       </c>
       <c r="D1">
-        <v>3.472746826239199</v>
+        <v>1.451746344566345</v>
       </c>
       <c r="E1">
-        <v>2.864774372355066</v>
+        <v>1.184410572052002</v>
       </c>
     </row>
   </sheetData>
